--- a/data_year/zb/公共管理、社会保障及其他/人民检察院纠正违法情况/人民检察院书面提出纠正.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院纠正违法情况/人民检察院书面提出纠正.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,496 +498,367 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42259</v>
+        <v>84949</v>
       </c>
       <c r="C2" t="n">
-        <v>15634</v>
+        <v>34180</v>
       </c>
       <c r="D2" t="n">
-        <v>3942</v>
+        <v>10829</v>
       </c>
       <c r="E2" t="n">
-        <v>10309</v>
+        <v>31535</v>
       </c>
       <c r="F2" t="n">
-        <v>6281</v>
+        <v>20181</v>
       </c>
       <c r="G2" t="n">
-        <v>86</v>
+        <v>525</v>
       </c>
       <c r="H2" t="n">
-        <v>2615</v>
+        <v>6628</v>
       </c>
       <c r="I2" t="n">
-        <v>7805</v>
+        <v>18880</v>
       </c>
       <c r="J2" t="n">
-        <v>7829</v>
+        <v>15300</v>
       </c>
       <c r="K2" t="n">
-        <v>4838</v>
+        <v>11311</v>
       </c>
       <c r="L2" t="n">
-        <v>19172</v>
+        <v>32830</v>
       </c>
       <c r="M2" t="n">
-        <v>24010</v>
+        <v>44141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54327</v>
+        <v>81634</v>
       </c>
       <c r="C3" t="n">
-        <v>22424</v>
+        <v>39812</v>
       </c>
       <c r="D3" t="n">
-        <v>5298</v>
+        <v>12164</v>
       </c>
       <c r="E3" t="n">
-        <v>17139</v>
+        <v>36482</v>
       </c>
       <c r="F3" t="n">
-        <v>11660</v>
+        <v>24075</v>
       </c>
       <c r="G3" t="n">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="H3" t="n">
-        <v>2995</v>
+        <v>8655</v>
       </c>
       <c r="I3" t="n">
-        <v>12296</v>
+        <v>20801</v>
       </c>
       <c r="J3" t="n">
-        <v>10128</v>
+        <v>19011</v>
       </c>
       <c r="K3" t="n">
-        <v>6847</v>
+        <v>11966</v>
       </c>
       <c r="L3" t="n">
-        <v>22061</v>
+        <v>21201</v>
       </c>
       <c r="M3" t="n">
-        <v>28908</v>
+        <v>33167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58023</v>
+        <v>119445</v>
       </c>
       <c r="C4" t="n">
-        <v>25974</v>
+        <v>57280</v>
       </c>
       <c r="D4" t="n">
-        <v>10157</v>
+        <v>14851</v>
       </c>
       <c r="E4" t="n">
-        <v>32762</v>
+        <v>47911</v>
       </c>
       <c r="F4" t="n">
-        <v>22268</v>
+        <v>32472</v>
       </c>
       <c r="G4" t="n">
-        <v>337</v>
+        <v>588</v>
       </c>
       <c r="H4" t="n">
-        <v>4035</v>
+        <v>12323</v>
       </c>
       <c r="I4" t="n">
-        <v>14308</v>
+        <v>30584</v>
       </c>
       <c r="J4" t="n">
-        <v>11666</v>
+        <v>26696</v>
       </c>
       <c r="K4" t="n">
-        <v>6823</v>
+        <v>20470</v>
       </c>
       <c r="L4" t="n">
-        <v>21191</v>
+        <v>29372</v>
       </c>
       <c r="M4" t="n">
-        <v>28014</v>
+        <v>49842</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84949</v>
+        <v>147316</v>
       </c>
       <c r="C5" t="n">
-        <v>34180</v>
+        <v>72718</v>
       </c>
       <c r="D5" t="n">
-        <v>10829</v>
+        <v>16906</v>
       </c>
       <c r="E5" t="n">
-        <v>31535</v>
+        <v>60750</v>
       </c>
       <c r="F5" t="n">
-        <v>20181</v>
+        <v>43389</v>
       </c>
       <c r="G5" t="n">
-        <v>525</v>
+        <v>455</v>
       </c>
       <c r="H5" t="n">
-        <v>6628</v>
+        <v>17217</v>
       </c>
       <c r="I5" t="n">
-        <v>18880</v>
+        <v>37684</v>
       </c>
       <c r="J5" t="n">
-        <v>15300</v>
+        <v>35034</v>
       </c>
       <c r="K5" t="n">
-        <v>11311</v>
+        <v>25627</v>
       </c>
       <c r="L5" t="n">
-        <v>32830</v>
+        <v>31754</v>
       </c>
       <c r="M5" t="n">
-        <v>44141</v>
+        <v>57381</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81634</v>
+        <v>111872</v>
       </c>
       <c r="C6" t="n">
-        <v>39812</v>
+        <v>54949</v>
       </c>
       <c r="D6" t="n">
-        <v>12164</v>
+        <v>24116</v>
       </c>
       <c r="E6" t="n">
-        <v>36482</v>
+        <v>68445</v>
       </c>
       <c r="F6" t="n">
-        <v>24075</v>
+        <v>43855</v>
       </c>
       <c r="G6" t="n">
-        <v>243</v>
+        <v>474</v>
       </c>
       <c r="H6" t="n">
-        <v>8655</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20801</v>
-      </c>
-      <c r="J6" t="n">
-        <v>19011</v>
-      </c>
+        <v>10246</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>11966</v>
+        <v>20281</v>
       </c>
       <c r="L6" t="n">
-        <v>21201</v>
+        <v>26396</v>
       </c>
       <c r="M6" t="n">
-        <v>33167</v>
+        <v>46677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119445</v>
+        <v>72534</v>
       </c>
       <c r="C7" t="n">
-        <v>57280</v>
+        <v>37292</v>
       </c>
       <c r="D7" t="n">
-        <v>14851</v>
+        <v>23017</v>
       </c>
       <c r="E7" t="n">
-        <v>47911</v>
+        <v>55063</v>
       </c>
       <c r="F7" t="n">
-        <v>32472</v>
+        <v>31607</v>
       </c>
       <c r="G7" t="n">
-        <v>588</v>
+        <v>439</v>
       </c>
       <c r="H7" t="n">
-        <v>12323</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30584</v>
-      </c>
-      <c r="J7" t="n">
-        <v>26696</v>
-      </c>
+        <v>7232</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>20470</v>
+        <v>10464</v>
       </c>
       <c r="L7" t="n">
-        <v>29372</v>
+        <v>17546</v>
       </c>
       <c r="M7" t="n">
-        <v>49842</v>
+        <v>28010</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147316</v>
+        <v>77885</v>
       </c>
       <c r="C8" t="n">
-        <v>72718</v>
+        <v>39621</v>
       </c>
       <c r="D8" t="n">
-        <v>16906</v>
+        <v>27926</v>
       </c>
       <c r="E8" t="n">
-        <v>60750</v>
+        <v>58770</v>
       </c>
       <c r="F8" t="n">
-        <v>43389</v>
+        <v>30261</v>
       </c>
       <c r="G8" t="n">
-        <v>455</v>
+        <v>583</v>
       </c>
       <c r="H8" t="n">
-        <v>17217</v>
-      </c>
-      <c r="I8" t="n">
-        <v>37684</v>
-      </c>
-      <c r="J8" t="n">
-        <v>35034</v>
-      </c>
+        <v>8171</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>25627</v>
+        <v>11425</v>
       </c>
       <c r="L8" t="n">
-        <v>31754</v>
+        <v>18668</v>
       </c>
       <c r="M8" t="n">
-        <v>57381</v>
+        <v>30093</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>111872</v>
+        <v>94951</v>
       </c>
       <c r="C9" t="n">
-        <v>54949</v>
+        <v>47871</v>
       </c>
       <c r="D9" t="n">
-        <v>24116</v>
+        <v>30888</v>
       </c>
       <c r="E9" t="n">
-        <v>68445</v>
+        <v>55638</v>
       </c>
       <c r="F9" t="n">
-        <v>43855</v>
+        <v>23145</v>
       </c>
       <c r="G9" t="n">
-        <v>474</v>
+        <v>1605</v>
       </c>
       <c r="H9" t="n">
-        <v>10246</v>
+        <v>9271</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>20281</v>
+        <v>14868</v>
       </c>
       <c r="L9" t="n">
-        <v>26396</v>
+        <v>22941</v>
       </c>
       <c r="M9" t="n">
-        <v>46677</v>
+        <v>37809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72534</v>
+        <v>114989</v>
       </c>
       <c r="C10" t="n">
-        <v>37292</v>
+        <v>58744</v>
       </c>
       <c r="D10" t="n">
-        <v>23017</v>
+        <v>42330</v>
       </c>
       <c r="E10" t="n">
-        <v>55063</v>
+        <v>69485</v>
       </c>
       <c r="F10" t="n">
-        <v>31607</v>
+        <v>25509</v>
       </c>
       <c r="G10" t="n">
-        <v>439</v>
+        <v>1646</v>
       </c>
       <c r="H10" t="n">
-        <v>7232</v>
+        <v>9657</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>10464</v>
+        <v>19722</v>
       </c>
       <c r="L10" t="n">
-        <v>17546</v>
+        <v>26866</v>
       </c>
       <c r="M10" t="n">
-        <v>28010</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>77885</v>
-      </c>
-      <c r="C11" t="n">
-        <v>39621</v>
-      </c>
-      <c r="D11" t="n">
-        <v>27926</v>
-      </c>
-      <c r="E11" t="n">
-        <v>58770</v>
-      </c>
-      <c r="F11" t="n">
-        <v>30261</v>
-      </c>
-      <c r="G11" t="n">
-        <v>583</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8171</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>11425</v>
-      </c>
-      <c r="L11" t="n">
-        <v>18668</v>
-      </c>
-      <c r="M11" t="n">
-        <v>30093</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>94951</v>
-      </c>
-      <c r="C12" t="n">
-        <v>47871</v>
-      </c>
-      <c r="D12" t="n">
-        <v>30888</v>
-      </c>
-      <c r="E12" t="n">
-        <v>55638</v>
-      </c>
-      <c r="F12" t="n">
-        <v>23145</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1605</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9271</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>14868</v>
-      </c>
-      <c r="L12" t="n">
-        <v>22941</v>
-      </c>
-      <c r="M12" t="n">
-        <v>37809</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>114989</v>
-      </c>
-      <c r="C13" t="n">
-        <v>58744</v>
-      </c>
-      <c r="D13" t="n">
-        <v>42330</v>
-      </c>
-      <c r="E13" t="n">
-        <v>69485</v>
-      </c>
-      <c r="F13" t="n">
-        <v>25509</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1646</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9657</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>19722</v>
-      </c>
-      <c r="L13" t="n">
-        <v>26866</v>
-      </c>
-      <c r="M13" t="n">
         <v>46588</v>
       </c>
     </row>
